--- a/data/pca/factorExposure/factorExposure_2018-11-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07229923498517379</v>
+        <v>0.04799164537621804</v>
       </c>
       <c r="C2">
-        <v>-0.05766616455769311</v>
+        <v>-0.001442400145277705</v>
       </c>
       <c r="D2">
-        <v>-0.06244676210838709</v>
+        <v>-0.0207024137914485</v>
       </c>
       <c r="E2">
-        <v>-0.02796031462107905</v>
+        <v>-0.01776180853263738</v>
       </c>
       <c r="F2">
-        <v>0.1409392091915723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03368728102211741</v>
+      </c>
+      <c r="G2">
+        <v>-0.1091604710546907</v>
+      </c>
+      <c r="H2">
+        <v>-0.07089758342681689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1961939371662742</v>
+        <v>0.120019806686594</v>
       </c>
       <c r="C3">
-        <v>0.006368510279569321</v>
+        <v>0.04477169609052612</v>
       </c>
       <c r="D3">
-        <v>-0.124098656953779</v>
+        <v>-0.05509868005029857</v>
       </c>
       <c r="E3">
-        <v>-0.08961972534362461</v>
+        <v>-0.01075986993313066</v>
       </c>
       <c r="F3">
-        <v>0.3704250588216358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.005799441014249371</v>
+      </c>
+      <c r="G3">
+        <v>-0.3465642693338231</v>
+      </c>
+      <c r="H3">
+        <v>-0.261154392585279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06825825596952863</v>
+        <v>0.05773241783790194</v>
       </c>
       <c r="C4">
-        <v>-0.02894398462566987</v>
+        <v>0.007741081804886939</v>
       </c>
       <c r="D4">
-        <v>-0.04400633548916115</v>
+        <v>-0.02774615936427104</v>
       </c>
       <c r="E4">
-        <v>-0.06037046246691134</v>
+        <v>0.0156694500468538</v>
       </c>
       <c r="F4">
-        <v>0.0595265894547312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06193510966700379</v>
+      </c>
+      <c r="G4">
+        <v>-0.06089623620268322</v>
+      </c>
+      <c r="H4">
+        <v>-0.02628279948841667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.008034105835787187</v>
+        <v>0.03387213675916671</v>
       </c>
       <c r="C6">
-        <v>-0.004269496813640728</v>
+        <v>0.003509909106534561</v>
       </c>
       <c r="D6">
-        <v>-0.003351457839515566</v>
+        <v>-0.01441755267915198</v>
       </c>
       <c r="E6">
-        <v>0.005210775251485554</v>
+        <v>0.002685125814837814</v>
       </c>
       <c r="F6">
-        <v>-3.832379889098531e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02636183247682452</v>
+      </c>
+      <c r="G6">
+        <v>-0.01080985839349874</v>
+      </c>
+      <c r="H6">
+        <v>0.03074113426065521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03718637440138794</v>
+        <v>0.03078318531226054</v>
       </c>
       <c r="C7">
-        <v>-0.01678353257964776</v>
+        <v>0.005458423621158729</v>
       </c>
       <c r="D7">
-        <v>-0.04480117295808324</v>
+        <v>-0.007029572996440439</v>
       </c>
       <c r="E7">
-        <v>-0.01384561963572292</v>
+        <v>0.03187520695880489</v>
       </c>
       <c r="F7">
-        <v>0.05801252927296821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02458164878178296</v>
+      </c>
+      <c r="G7">
+        <v>-0.04692334680277361</v>
+      </c>
+      <c r="H7">
+        <v>-0.04561273612682305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03708133465246785</v>
+        <v>0.01272120520332473</v>
       </c>
       <c r="C8">
-        <v>-0.001319984251672634</v>
+        <v>0.006748716227758909</v>
       </c>
       <c r="D8">
-        <v>-0.03403043724566191</v>
+        <v>-0.03040161403096509</v>
       </c>
       <c r="E8">
-        <v>-0.05357825235950973</v>
+        <v>0.01118023907575941</v>
       </c>
       <c r="F8">
-        <v>0.0875868219212291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03168693877536512</v>
+      </c>
+      <c r="G8">
+        <v>-0.07066542441394762</v>
+      </c>
+      <c r="H8">
+        <v>-0.05309624793393723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05461071969086186</v>
+        <v>0.04584159526953218</v>
       </c>
       <c r="C9">
-        <v>-0.02642380357033672</v>
+        <v>0.009612277533936103</v>
       </c>
       <c r="D9">
-        <v>-0.02629754320591727</v>
+        <v>-0.02055021713888632</v>
       </c>
       <c r="E9">
-        <v>-0.06754231818763112</v>
+        <v>0.01590811450293968</v>
       </c>
       <c r="F9">
-        <v>0.06020653524989186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04165816789893285</v>
+      </c>
+      <c r="G9">
+        <v>-0.0771063438699631</v>
+      </c>
+      <c r="H9">
+        <v>-0.02830636309534943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03169145451420419</v>
+        <v>0.0511600914738627</v>
       </c>
       <c r="C10">
-        <v>-0.0690953920376841</v>
+        <v>0.01756830652273313</v>
       </c>
       <c r="D10">
-        <v>0.1058776905409771</v>
+        <v>0.149958465264017</v>
       </c>
       <c r="E10">
-        <v>0.1034876142817905</v>
+        <v>-0.02108983217843875</v>
       </c>
       <c r="F10">
-        <v>0.08212564058014435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08062821570978658</v>
+      </c>
+      <c r="G10">
+        <v>-0.04228259298968354</v>
+      </c>
+      <c r="H10">
+        <v>-0.02410447083912741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04588226175363694</v>
+        <v>0.03268471733203848</v>
       </c>
       <c r="C11">
-        <v>-0.006721705176911445</v>
+        <v>0.01758676227388727</v>
       </c>
       <c r="D11">
-        <v>-0.02844091020052049</v>
+        <v>-0.02830924868343778</v>
       </c>
       <c r="E11">
-        <v>-0.01634761508116635</v>
+        <v>-0.00552501458574823</v>
       </c>
       <c r="F11">
-        <v>0.03725689955942303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02058199529030196</v>
+      </c>
+      <c r="G11">
+        <v>-0.04570858840574545</v>
+      </c>
+      <c r="H11">
+        <v>-0.009230680841681159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04587303682850973</v>
+        <v>0.03725496329308899</v>
       </c>
       <c r="C12">
-        <v>-0.007943712994139179</v>
+        <v>0.01501198480463468</v>
       </c>
       <c r="D12">
-        <v>-0.02358861653705666</v>
+        <v>-0.02699787615104168</v>
       </c>
       <c r="E12">
-        <v>-0.03420914573208126</v>
+        <v>0.005916719108807954</v>
       </c>
       <c r="F12">
-        <v>0.02032527121167212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02524484015208722</v>
+      </c>
+      <c r="G12">
+        <v>-0.0148320020244998</v>
+      </c>
+      <c r="H12">
+        <v>-0.007335374265025003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04728527007375456</v>
+        <v>0.03805614875092999</v>
       </c>
       <c r="C13">
-        <v>-0.02221925097585949</v>
+        <v>-0.004705552492724509</v>
       </c>
       <c r="D13">
-        <v>-0.0460914668560591</v>
+        <v>-0.01290602408257449</v>
       </c>
       <c r="E13">
-        <v>-0.002879790190028503</v>
+        <v>-0.01836766831082382</v>
       </c>
       <c r="F13">
-        <v>0.1114252445172424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02006803341696852</v>
+      </c>
+      <c r="G13">
+        <v>-0.08780617732141749</v>
+      </c>
+      <c r="H13">
+        <v>-0.03362713961021071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02481569121182566</v>
+        <v>0.02078940950094578</v>
       </c>
       <c r="C14">
-        <v>-0.01828917982201358</v>
+        <v>0.004741681873999667</v>
       </c>
       <c r="D14">
-        <v>-0.03263471962398382</v>
+        <v>-0.007189091429693656</v>
       </c>
       <c r="E14">
-        <v>-0.03304003063050821</v>
+        <v>0.005847812011418201</v>
       </c>
       <c r="F14">
-        <v>0.04556137829093636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03126195293069296</v>
+      </c>
+      <c r="G14">
+        <v>-0.0432190545079419</v>
+      </c>
+      <c r="H14">
+        <v>-0.0645066650216015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03761498714172313</v>
+        <v>0.03054182484206729</v>
       </c>
       <c r="C16">
-        <v>-0.007332195849401283</v>
+        <v>0.01648947535841492</v>
       </c>
       <c r="D16">
-        <v>-0.02488729746108426</v>
+        <v>-0.02713009205300335</v>
       </c>
       <c r="E16">
-        <v>-0.01672893889036743</v>
+        <v>-0.0001329052181622419</v>
       </c>
       <c r="F16">
-        <v>0.02906599891834052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02241664782049426</v>
+      </c>
+      <c r="G16">
+        <v>-0.03380356185467089</v>
+      </c>
+      <c r="H16">
+        <v>-0.009628717699097953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05720827597686141</v>
+        <v>0.04101812015631438</v>
       </c>
       <c r="C19">
-        <v>-0.0008379443742014464</v>
+        <v>0.008664672073665419</v>
       </c>
       <c r="D19">
-        <v>-0.04050971550058422</v>
+        <v>-0.02667370779404249</v>
       </c>
       <c r="E19">
-        <v>-0.01802729876941813</v>
+        <v>-0.0051267127920665</v>
       </c>
       <c r="F19">
-        <v>0.09194275616369113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0317332742536772</v>
+      </c>
+      <c r="G19">
+        <v>-0.09048570553411352</v>
+      </c>
+      <c r="H19">
+        <v>-0.0401010778495693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01633620815689216</v>
+        <v>0.01301552663208243</v>
       </c>
       <c r="C20">
-        <v>-0.01354638333847442</v>
+        <v>-0.003519987675638954</v>
       </c>
       <c r="D20">
-        <v>-0.03890551734284601</v>
+        <v>-0.01401279991467553</v>
       </c>
       <c r="E20">
-        <v>-0.04141868625248632</v>
+        <v>0.003425410267644233</v>
       </c>
       <c r="F20">
-        <v>0.05656110812028742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02373822185698371</v>
+      </c>
+      <c r="G20">
+        <v>-0.05328418456294423</v>
+      </c>
+      <c r="H20">
+        <v>-0.05754901811645674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01562180412795697</v>
+        <v>0.02572137722910193</v>
       </c>
       <c r="C21">
-        <v>0.004088599982893838</v>
+        <v>-0.001959377181301453</v>
       </c>
       <c r="D21">
-        <v>-0.03251161260236046</v>
+        <v>-0.01191529080902787</v>
       </c>
       <c r="E21">
-        <v>-0.02115012113910639</v>
+        <v>0.01108801705951687</v>
       </c>
       <c r="F21">
-        <v>0.09437894407834818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01077143740197459</v>
+      </c>
+      <c r="G21">
+        <v>-0.07295111626786235</v>
+      </c>
+      <c r="H21">
+        <v>-0.02742127320248042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03465060817656906</v>
+        <v>0.02938540714966659</v>
       </c>
       <c r="C24">
-        <v>-0.005933486991212393</v>
+        <v>0.01109613572051255</v>
       </c>
       <c r="D24">
-        <v>-0.02099064362150351</v>
+        <v>-0.02433546335972686</v>
       </c>
       <c r="E24">
-        <v>-0.01846811178525227</v>
+        <v>0.0006237020066611115</v>
       </c>
       <c r="F24">
-        <v>0.03815274352371158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01943707017306983</v>
+      </c>
+      <c r="G24">
+        <v>-0.03596345330219937</v>
+      </c>
+      <c r="H24">
+        <v>-0.005607580606384122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04018359976669787</v>
+        <v>0.04002838115501925</v>
       </c>
       <c r="C25">
-        <v>-0.00563440163735222</v>
+        <v>0.01045952796136799</v>
       </c>
       <c r="D25">
-        <v>-0.02416568081047839</v>
+        <v>-0.02496690549801187</v>
       </c>
       <c r="E25">
-        <v>-0.02530270984853562</v>
+        <v>0.000619390196457543</v>
       </c>
       <c r="F25">
-        <v>0.04500445869841292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02328207253004938</v>
+      </c>
+      <c r="G25">
+        <v>-0.04428906903984399</v>
+      </c>
+      <c r="H25">
+        <v>-0.002475835620796583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01956096075056231</v>
+        <v>0.01953824144970386</v>
       </c>
       <c r="C26">
-        <v>0.003230977181266716</v>
+        <v>-0.01550449171458053</v>
       </c>
       <c r="D26">
-        <v>-0.04704102954332465</v>
+        <v>-0.01620964072199642</v>
       </c>
       <c r="E26">
-        <v>-0.0132305542175305</v>
+        <v>-0.004661405823852869</v>
       </c>
       <c r="F26">
-        <v>0.04979815691915478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.009623454452965901</v>
+      </c>
+      <c r="G26">
+        <v>-0.04769660999894472</v>
+      </c>
+      <c r="H26">
+        <v>-0.04200439219411072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09832770593033292</v>
+        <v>0.04834460663987575</v>
       </c>
       <c r="C27">
-        <v>-0.04952546346734985</v>
+        <v>0.02495368050969377</v>
       </c>
       <c r="D27">
-        <v>-0.02144380997400864</v>
+        <v>-0.004589919419548435</v>
       </c>
       <c r="E27">
-        <v>-0.03823521925069914</v>
+        <v>-0.000887908044764067</v>
       </c>
       <c r="F27">
-        <v>0.06510748060250979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02673299992930013</v>
+      </c>
+      <c r="G27">
+        <v>-0.04523932150021547</v>
+      </c>
+      <c r="H27">
+        <v>-0.03031116407566068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04732950404401039</v>
+        <v>0.07961372059307273</v>
       </c>
       <c r="C28">
-        <v>-0.08300713140974798</v>
+        <v>0.01360775976602191</v>
       </c>
       <c r="D28">
-        <v>0.1734571396787009</v>
+        <v>0.2314222123870725</v>
       </c>
       <c r="E28">
-        <v>0.153437400452782</v>
+        <v>-0.02437013975129382</v>
       </c>
       <c r="F28">
-        <v>0.05985849286319767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.115595690751372</v>
+      </c>
+      <c r="G28">
+        <v>-0.01837827099505971</v>
+      </c>
+      <c r="H28">
+        <v>-0.05398115023338284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02620573113234939</v>
+        <v>0.02180286365972596</v>
       </c>
       <c r="C29">
-        <v>-0.0148984805201552</v>
+        <v>0.005627289307792415</v>
       </c>
       <c r="D29">
-        <v>-0.02783567323573972</v>
+        <v>-0.006576274132809657</v>
       </c>
       <c r="E29">
-        <v>-0.03969626726058415</v>
+        <v>0.007514451214042497</v>
       </c>
       <c r="F29">
-        <v>0.0255054761355666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03256929513319694</v>
+      </c>
+      <c r="G29">
+        <v>-0.03497030340846848</v>
+      </c>
+      <c r="H29">
+        <v>-0.06504033886334742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1005281314628973</v>
+        <v>0.07708663040580112</v>
       </c>
       <c r="C30">
-        <v>-0.05024748211589105</v>
+        <v>0.01582673736209097</v>
       </c>
       <c r="D30">
-        <v>-0.06107237818054879</v>
+        <v>-0.03877749233097318</v>
       </c>
       <c r="E30">
-        <v>-0.03433379491905339</v>
+        <v>-0.04338740261890853</v>
       </c>
       <c r="F30">
-        <v>0.08143041480181022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.06290592817234682</v>
+      </c>
+      <c r="G30">
+        <v>-0.09331927442261302</v>
+      </c>
+      <c r="H30">
+        <v>-0.01283214226569486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06150249219146268</v>
+        <v>0.05363060774181106</v>
       </c>
       <c r="C31">
-        <v>-0.01607480059698917</v>
+        <v>0.02254901855995233</v>
       </c>
       <c r="D31">
-        <v>-0.03783934781088839</v>
+        <v>-0.0115651711778346</v>
       </c>
       <c r="E31">
-        <v>0.01476539194729006</v>
+        <v>-0.01081839666168848</v>
       </c>
       <c r="F31">
-        <v>0.02347257472986237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01674045461602812</v>
+      </c>
+      <c r="G31">
+        <v>-0.0153824718059605</v>
+      </c>
+      <c r="H31">
+        <v>-0.06020796781391466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.05467715007313233</v>
+        <v>0.02207861044210956</v>
       </c>
       <c r="C32">
-        <v>-0.01280132266919011</v>
+        <v>0.02225129338599918</v>
       </c>
       <c r="D32">
-        <v>-0.04431723402594361</v>
+        <v>-0.0222577721860655</v>
       </c>
       <c r="E32">
-        <v>-0.06204564704290474</v>
+        <v>0.01462289355717865</v>
       </c>
       <c r="F32">
-        <v>0.08067406095371224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05375851617863425</v>
+      </c>
+      <c r="G32">
+        <v>-0.08111370352797075</v>
+      </c>
+      <c r="H32">
+        <v>-0.008707067436034504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06320065037951353</v>
+        <v>0.04648824931662908</v>
       </c>
       <c r="C33">
-        <v>-0.0004448743766811905</v>
+        <v>0.01034744388815666</v>
       </c>
       <c r="D33">
-        <v>-0.06346270812081649</v>
+        <v>-0.03966047814283719</v>
       </c>
       <c r="E33">
-        <v>-0.02209645463429622</v>
+        <v>-0.02179247362632108</v>
       </c>
       <c r="F33">
-        <v>0.0853914161052798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01397505755309326</v>
+      </c>
+      <c r="G33">
+        <v>-0.07739266528304735</v>
+      </c>
+      <c r="H33">
+        <v>-0.04969994172364789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03998827553974679</v>
+        <v>0.03135694772152378</v>
       </c>
       <c r="C34">
-        <v>-0.01235699734081121</v>
+        <v>0.02457949436116464</v>
       </c>
       <c r="D34">
-        <v>-0.0270103538215039</v>
+        <v>-0.02590925812108138</v>
       </c>
       <c r="E34">
-        <v>-0.02519891536314579</v>
+        <v>0.005397035541752873</v>
       </c>
       <c r="F34">
-        <v>0.03891331549591878</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02730328936655669</v>
+      </c>
+      <c r="G34">
+        <v>-0.03730514890788127</v>
+      </c>
+      <c r="H34">
+        <v>-0.007852027010519022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01844504720889191</v>
+        <v>0.01999340070708756</v>
       </c>
       <c r="C36">
-        <v>-0.01161008943348212</v>
+        <v>-0.002050464547449555</v>
       </c>
       <c r="D36">
-        <v>-0.002656503079403426</v>
+        <v>0.002266818292873616</v>
       </c>
       <c r="E36">
-        <v>-0.00920445790724999</v>
+        <v>0.00155878098578483</v>
       </c>
       <c r="F36">
-        <v>0.03179969629561074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.004596988126786153</v>
+      </c>
+      <c r="G36">
+        <v>-0.03071115950701196</v>
+      </c>
+      <c r="H36">
+        <v>-0.03749977844751411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01225440474053242</v>
+        <v>0.01774422505575055</v>
       </c>
       <c r="C38">
-        <v>-0.006039942483196416</v>
+        <v>0.01774355939101851</v>
       </c>
       <c r="D38">
-        <v>0.01650717214189284</v>
+        <v>-0.0003159571591213273</v>
       </c>
       <c r="E38">
-        <v>-0.00143407899460423</v>
+        <v>0.003109458370806283</v>
       </c>
       <c r="F38">
-        <v>0.03245168423029837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.005082491358638679</v>
+      </c>
+      <c r="G38">
+        <v>-0.04285343825707356</v>
+      </c>
+      <c r="H38">
+        <v>-0.01824075916662131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05146732408988192</v>
+        <v>0.03877259830106296</v>
       </c>
       <c r="C39">
-        <v>-0.01830715302900067</v>
+        <v>0.01522742151046832</v>
       </c>
       <c r="D39">
-        <v>-0.04393063052336686</v>
+        <v>-0.04375833881155385</v>
       </c>
       <c r="E39">
-        <v>-0.01636996883675142</v>
+        <v>-0.004271769679556992</v>
       </c>
       <c r="F39">
-        <v>0.04003650437328554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0439113849775691</v>
+      </c>
+      <c r="G39">
+        <v>-0.05479022537398347</v>
+      </c>
+      <c r="H39">
+        <v>0.003609594187959604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05338225901131192</v>
+        <v>0.04246723362508519</v>
       </c>
       <c r="C40">
-        <v>-0.03907688469322189</v>
+        <v>0.0119730275670364</v>
       </c>
       <c r="D40">
-        <v>-0.07141874418744174</v>
+        <v>-0.0306562765572934</v>
       </c>
       <c r="E40">
-        <v>-0.01460396168920256</v>
+        <v>-0.02298199897356437</v>
       </c>
       <c r="F40">
-        <v>0.08897776557781496</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03804204087837906</v>
+      </c>
+      <c r="G40">
+        <v>-0.07245139001641941</v>
+      </c>
+      <c r="H40">
+        <v>-0.03208676322889103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005137834456129868</v>
+        <v>0.00431658354403281</v>
       </c>
       <c r="C41">
-        <v>0.004254347032433639</v>
+        <v>-0.002236823395379263</v>
       </c>
       <c r="D41">
-        <v>-0.01798853064365685</v>
+        <v>5.851706203626702e-05</v>
       </c>
       <c r="E41">
-        <v>-0.01619472152464187</v>
+        <v>0.0001441379617177498</v>
       </c>
       <c r="F41">
-        <v>0.005537270984108046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0005825276153335413</v>
+      </c>
+      <c r="G41">
+        <v>-0.008720180015858524</v>
+      </c>
+      <c r="H41">
+        <v>-0.04974290817183523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3433823986697349</v>
+        <v>0.2493556566814328</v>
       </c>
       <c r="C42">
-        <v>0.878367571705345</v>
+        <v>-0.04654650663382218</v>
       </c>
       <c r="D42">
-        <v>0.02485028417031604</v>
+        <v>-0.5321286559738608</v>
       </c>
       <c r="E42">
-        <v>0.2811134943660248</v>
+        <v>-0.02935729224235097</v>
       </c>
       <c r="F42">
-        <v>-0.04913124794597231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7890041524425654</v>
+      </c>
+      <c r="G42">
+        <v>0.09050119239030872</v>
+      </c>
+      <c r="H42">
+        <v>0.02237604299544105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01208898539211254</v>
+        <v>0.002463900120802612</v>
       </c>
       <c r="C43">
-        <v>9.340257508272207e-05</v>
+        <v>-0.004458724946584506</v>
       </c>
       <c r="D43">
-        <v>-0.02393270687843389</v>
+        <v>-0.002811353173740264</v>
       </c>
       <c r="E43">
-        <v>-0.01335178060924793</v>
+        <v>-0.00354854594457338</v>
       </c>
       <c r="F43">
-        <v>0.03011168668688149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003611595388448961</v>
+      </c>
+      <c r="G43">
+        <v>-0.01932195400720034</v>
+      </c>
+      <c r="H43">
+        <v>-0.04682030765151317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03323837038907097</v>
+        <v>0.01688767924143732</v>
       </c>
       <c r="C44">
-        <v>-0.002891056766456862</v>
+        <v>0.004360073239993077</v>
       </c>
       <c r="D44">
-        <v>-0.05340416513882187</v>
+        <v>-0.02202681936022975</v>
       </c>
       <c r="E44">
-        <v>-0.03678198977857699</v>
+        <v>0.002363072854973099</v>
       </c>
       <c r="F44">
-        <v>0.1603069846267851</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01251844956911452</v>
+      </c>
+      <c r="G44">
+        <v>-0.116936362016253</v>
+      </c>
+      <c r="H44">
+        <v>-0.08900053410004183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02760994877715602</v>
+        <v>0.02178967649048207</v>
       </c>
       <c r="C46">
-        <v>-0.01121002703962932</v>
+        <v>0.002239220532845655</v>
       </c>
       <c r="D46">
-        <v>-0.04678574415198319</v>
+        <v>-0.01830605615421248</v>
       </c>
       <c r="E46">
-        <v>-0.03289779202092085</v>
+        <v>-0.004103382374578758</v>
       </c>
       <c r="F46">
-        <v>0.02618496172378061</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04054436037502369</v>
+      </c>
+      <c r="G46">
+        <v>-0.04964693181677161</v>
+      </c>
+      <c r="H46">
+        <v>-0.06347234695766887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09352251489504258</v>
+        <v>0.0779613854409939</v>
       </c>
       <c r="C47">
-        <v>-0.03159279485784102</v>
+        <v>0.04305819487024508</v>
       </c>
       <c r="D47">
-        <v>-0.02977036697818392</v>
+        <v>-0.01714934734630429</v>
       </c>
       <c r="E47">
-        <v>-0.01472002929068311</v>
+        <v>-0.006783663032213418</v>
       </c>
       <c r="F47">
-        <v>-0.008511089073622871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02682518293556068</v>
+      </c>
+      <c r="G47">
+        <v>0.01679672587720416</v>
+      </c>
+      <c r="H47">
+        <v>-0.07262495805113174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01671671117939035</v>
+        <v>0.0191059686835266</v>
       </c>
       <c r="C48">
-        <v>-0.006391380615587672</v>
+        <v>0.008383489908305664</v>
       </c>
       <c r="D48">
-        <v>-0.02657510544743689</v>
+        <v>-0.007778880195922423</v>
       </c>
       <c r="E48">
-        <v>-0.0218086035032042</v>
+        <v>-0.001209613539489139</v>
       </c>
       <c r="F48">
-        <v>0.04493078618350051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01097488884635067</v>
+      </c>
+      <c r="G48">
+        <v>-0.03424629428388362</v>
+      </c>
+      <c r="H48">
+        <v>-0.03234555380171032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09743152081460878</v>
+        <v>0.07563818566282415</v>
       </c>
       <c r="C50">
-        <v>-0.0118977265836699</v>
+        <v>0.03853537225836511</v>
       </c>
       <c r="D50">
-        <v>-0.03884201989455349</v>
+        <v>-0.03000351607798</v>
       </c>
       <c r="E50">
-        <v>-0.003105356650680765</v>
+        <v>0.006556458131616311</v>
       </c>
       <c r="F50">
-        <v>0.0001021844700981103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01985619362545942</v>
+      </c>
+      <c r="G50">
+        <v>-0.01301580227207621</v>
+      </c>
+      <c r="H50">
+        <v>-0.05867588483041368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04458016088048988</v>
+        <v>0.02417186269850106</v>
       </c>
       <c r="C51">
-        <v>-0.002886377246429931</v>
+        <v>0.00323378312789979</v>
       </c>
       <c r="D51">
-        <v>-0.02931246238560416</v>
+        <v>0.002568480861287966</v>
       </c>
       <c r="E51">
-        <v>0.02981605490522055</v>
+        <v>-0.01251558602985082</v>
       </c>
       <c r="F51">
-        <v>0.1361867026035461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01482665100515222</v>
+      </c>
+      <c r="G51">
+        <v>-0.09454648888378506</v>
+      </c>
+      <c r="H51">
+        <v>-0.06523246085497438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.11886614985449</v>
+        <v>0.1029424471754235</v>
       </c>
       <c r="C53">
-        <v>-0.02988770852811663</v>
+        <v>0.05701501532352848</v>
       </c>
       <c r="D53">
-        <v>-0.06195398790653325</v>
+        <v>-0.04339004180978737</v>
       </c>
       <c r="E53">
-        <v>-0.02362892724807449</v>
+        <v>-0.005195673776466305</v>
       </c>
       <c r="F53">
-        <v>-0.07341104477270918</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05920244116129805</v>
+      </c>
+      <c r="G53">
+        <v>0.05691462427458221</v>
+      </c>
+      <c r="H53">
+        <v>-0.03144050356354516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02309511457619873</v>
+        <v>0.01955990083082474</v>
       </c>
       <c r="C54">
-        <v>-0.02692948858231774</v>
+        <v>0.01423505973234893</v>
       </c>
       <c r="D54">
-        <v>-0.01602648416532506</v>
+        <v>0.01171406898744611</v>
       </c>
       <c r="E54">
-        <v>-0.02015832028243395</v>
+        <v>0.002078259097393482</v>
       </c>
       <c r="F54">
-        <v>0.04712441876380467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02034959411107471</v>
+      </c>
+      <c r="G54">
+        <v>-0.04100680885501441</v>
+      </c>
+      <c r="H54">
+        <v>-0.07037716788311316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1072431464343986</v>
+        <v>0.08874257589852562</v>
       </c>
       <c r="C55">
-        <v>-0.02254655479303892</v>
+        <v>0.04986485902108474</v>
       </c>
       <c r="D55">
-        <v>-0.01550869828874541</v>
+        <v>-0.03768400071785905</v>
       </c>
       <c r="E55">
-        <v>-0.0410244924149887</v>
+        <v>0.008613985088897633</v>
       </c>
       <c r="F55">
-        <v>-0.06389029123387088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04783193150603535</v>
+      </c>
+      <c r="G55">
+        <v>0.04503807314048336</v>
+      </c>
+      <c r="H55">
+        <v>-0.04296561942491679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1454187032809527</v>
+        <v>0.1353007948743009</v>
       </c>
       <c r="C56">
-        <v>-0.07006922637314249</v>
+        <v>0.08120233081792129</v>
       </c>
       <c r="D56">
-        <v>-0.04053857885296844</v>
+        <v>-0.03707109376465338</v>
       </c>
       <c r="E56">
-        <v>-0.04425704251969316</v>
+        <v>-0.001572366293116466</v>
       </c>
       <c r="F56">
-        <v>-0.1429637855702232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.07950812118094769</v>
+      </c>
+      <c r="G56">
+        <v>0.1041311090384417</v>
+      </c>
+      <c r="H56">
+        <v>-0.0002716854015736286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.06107940590407954</v>
+        <v>0.05560329788046769</v>
       </c>
       <c r="C57">
-        <v>-0.01988324031188971</v>
+        <v>0.002332414347186597</v>
       </c>
       <c r="D57">
-        <v>-0.04431548191535487</v>
+        <v>-0.0198416643161205</v>
       </c>
       <c r="E57">
-        <v>-0.0009783259382651962</v>
+        <v>-0.01580729410278187</v>
       </c>
       <c r="F57">
-        <v>0.08263905821420379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0175637618351669</v>
+      </c>
+      <c r="G57">
+        <v>-0.06490544558702033</v>
+      </c>
+      <c r="H57">
+        <v>-0.01976708230996148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2328228325497894</v>
+        <v>0.1716966836411177</v>
       </c>
       <c r="C58">
-        <v>-0.05305487140969711</v>
+        <v>0.07448389004501242</v>
       </c>
       <c r="D58">
-        <v>-0.1211779196174365</v>
+        <v>-0.07184596581054233</v>
       </c>
       <c r="E58">
-        <v>-0.02294269523822418</v>
+        <v>-0.1117547646338305</v>
       </c>
       <c r="F58">
-        <v>0.1790205045540912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01432273308101383</v>
+      </c>
+      <c r="G58">
+        <v>-0.4117394663955719</v>
+      </c>
+      <c r="H58">
+        <v>-0.3533872490198642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0527214871041129</v>
+        <v>0.08124794166828918</v>
       </c>
       <c r="C59">
-        <v>-0.10740231634379</v>
+        <v>0.0227199061492762</v>
       </c>
       <c r="D59">
-        <v>0.1282070526899288</v>
+        <v>0.2066093614693511</v>
       </c>
       <c r="E59">
-        <v>0.109679122481012</v>
+        <v>-0.0384736815362073</v>
       </c>
       <c r="F59">
-        <v>0.03982053761992387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07792057161076757</v>
+      </c>
+      <c r="G59">
+        <v>-0.04258518219378543</v>
+      </c>
+      <c r="H59">
+        <v>-0.008305561131767567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1771728719108364</v>
+        <v>0.1824671940077738</v>
       </c>
       <c r="C60">
-        <v>-0.08019459728084731</v>
+        <v>0.06758925314262589</v>
       </c>
       <c r="D60">
-        <v>-0.005014395962830738</v>
+        <v>0.04496518111298318</v>
       </c>
       <c r="E60">
-        <v>0.07775883290799131</v>
+        <v>-0.07041756118387371</v>
       </c>
       <c r="F60">
-        <v>0.1396753168441148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.02986360853769009</v>
+      </c>
+      <c r="G60">
+        <v>-0.1974727859149072</v>
+      </c>
+      <c r="H60">
+        <v>0.3726942744341766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03334514780036932</v>
+        <v>0.03285393961211395</v>
       </c>
       <c r="C61">
-        <v>-0.009073286211917402</v>
+        <v>0.01592709477521821</v>
       </c>
       <c r="D61">
-        <v>-0.01864606097000697</v>
+        <v>-0.02969821357644224</v>
       </c>
       <c r="E61">
-        <v>-0.01819154756938282</v>
+        <v>0.001021422705605674</v>
       </c>
       <c r="F61">
-        <v>0.03317519318277948</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02961099569593521</v>
+      </c>
+      <c r="G61">
+        <v>-0.03947837644044108</v>
+      </c>
+      <c r="H61">
+        <v>0.008781238779385992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02750321585621066</v>
+        <v>0.02199565406288696</v>
       </c>
       <c r="C63">
-        <v>-0.02124877198086747</v>
+        <v>0.005009221874288081</v>
       </c>
       <c r="D63">
-        <v>-0.04136070406400737</v>
+        <v>-0.01595110343962515</v>
       </c>
       <c r="E63">
-        <v>-0.02995831651393009</v>
+        <v>-0.001053287983833981</v>
       </c>
       <c r="F63">
-        <v>0.03378567588303853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02740866096149296</v>
+      </c>
+      <c r="G63">
+        <v>-0.03119890371879179</v>
+      </c>
+      <c r="H63">
+        <v>-0.05489607598214835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05185248725600852</v>
+        <v>0.04815049547987861</v>
       </c>
       <c r="C64">
-        <v>-0.01043358555632325</v>
+        <v>0.02110718231356596</v>
       </c>
       <c r="D64">
-        <v>-0.03380687288143672</v>
+        <v>-0.03544448253225679</v>
       </c>
       <c r="E64">
-        <v>-0.06452560460950883</v>
+        <v>0.009549623719106419</v>
       </c>
       <c r="F64">
-        <v>0.05411425933700211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03190849393740032</v>
+      </c>
+      <c r="G64">
+        <v>-0.03762747002410928</v>
+      </c>
+      <c r="H64">
+        <v>-0.0306842295871194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007488954267418945</v>
+        <v>0.03986618437726712</v>
       </c>
       <c r="C65">
-        <v>-0.002788070069307089</v>
+        <v>0.004337757119366849</v>
       </c>
       <c r="D65">
-        <v>-0.002235409722307188</v>
+        <v>-0.0170154697918398</v>
       </c>
       <c r="E65">
-        <v>0.00643772567670409</v>
+        <v>0.002530873007671204</v>
       </c>
       <c r="F65">
-        <v>0.0005167951988624451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02607428259289724</v>
+      </c>
+      <c r="G65">
+        <v>-0.00553135300975856</v>
+      </c>
+      <c r="H65">
+        <v>0.03652563884060642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05614166926433316</v>
+        <v>0.04846653051120244</v>
       </c>
       <c r="C66">
-        <v>-0.02772172314758764</v>
+        <v>0.02329161656620927</v>
       </c>
       <c r="D66">
-        <v>-0.05418700472223601</v>
+        <v>-0.04751135287366998</v>
       </c>
       <c r="E66">
-        <v>-0.02981503129829215</v>
+        <v>-0.01287920403116838</v>
       </c>
       <c r="F66">
-        <v>0.06775058201219734</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06580650138153205</v>
+      </c>
+      <c r="G66">
+        <v>-0.06253600449974579</v>
+      </c>
+      <c r="H66">
+        <v>0.01870337148227195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02814080570182201</v>
+        <v>0.03472020777660667</v>
       </c>
       <c r="C67">
-        <v>-0.01620998376200917</v>
+        <v>0.02193766526630268</v>
       </c>
       <c r="D67">
-        <v>0.02752918271984228</v>
+        <v>0.01145839363185063</v>
       </c>
       <c r="E67">
-        <v>0.01490237174430039</v>
+        <v>-0.002274940783862093</v>
       </c>
       <c r="F67">
-        <v>0.04045501416126106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.00438343104858717</v>
+      </c>
+      <c r="G67">
+        <v>-0.03540324342403909</v>
+      </c>
+      <c r="H67">
+        <v>-0.0002476568838293304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06185420776279513</v>
+        <v>0.08806581202013818</v>
       </c>
       <c r="C68">
-        <v>-0.09232813857749407</v>
+        <v>0.002175637868240203</v>
       </c>
       <c r="D68">
-        <v>0.1776360273904412</v>
+        <v>0.2188833086178359</v>
       </c>
       <c r="E68">
-        <v>0.1520894369042818</v>
+        <v>-0.03416567391755314</v>
       </c>
       <c r="F68">
-        <v>-0.007369618084660897</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1113934990548952</v>
+      </c>
+      <c r="G68">
+        <v>0.003574699590467988</v>
+      </c>
+      <c r="H68">
+        <v>-0.04482284860191955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07348680277116128</v>
+        <v>0.0625995103911188</v>
       </c>
       <c r="C69">
-        <v>-0.03338948863370996</v>
+        <v>0.03906409253529948</v>
       </c>
       <c r="D69">
-        <v>-0.01529246055750854</v>
+        <v>-0.01092537887481714</v>
       </c>
       <c r="E69">
-        <v>0.0132441907269828</v>
+        <v>-0.009164705031818987</v>
       </c>
       <c r="F69">
-        <v>0.0003040138803179444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02183591633987837</v>
+      </c>
+      <c r="G69">
+        <v>0.001442048907067452</v>
+      </c>
+      <c r="H69">
+        <v>-0.0453593709346173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06019022648600705</v>
+        <v>0.08495540587010134</v>
       </c>
       <c r="C71">
-        <v>-0.1109510806115296</v>
+        <v>0.01037681992173165</v>
       </c>
       <c r="D71">
-        <v>0.2161393820526019</v>
+        <v>0.2323256521022785</v>
       </c>
       <c r="E71">
-        <v>0.2364958188341426</v>
+        <v>-0.04137309834445798</v>
       </c>
       <c r="F71">
-        <v>0.06219676064464466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1343547877267615</v>
+      </c>
+      <c r="G71">
+        <v>-0.01540309314624796</v>
+      </c>
+      <c r="H71">
+        <v>-0.01796499242983473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1291880493446227</v>
+        <v>0.115050608918444</v>
       </c>
       <c r="C72">
-        <v>-0.09858129215458174</v>
+        <v>0.07133446124704057</v>
       </c>
       <c r="D72">
-        <v>-0.03957897710033802</v>
+        <v>-0.02738582578210764</v>
       </c>
       <c r="E72">
-        <v>-0.03755942595132946</v>
+        <v>-0.01957990771394064</v>
       </c>
       <c r="F72">
-        <v>0.02380729287859555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1041794933169105</v>
+      </c>
+      <c r="G72">
+        <v>-0.1102860684223822</v>
+      </c>
+      <c r="H72">
+        <v>0.08627674488748063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2548758245006181</v>
+        <v>0.2542322227140927</v>
       </c>
       <c r="C73">
-        <v>-0.111610266571814</v>
+        <v>0.0891239821187113</v>
       </c>
       <c r="D73">
-        <v>0.03077305034691216</v>
+        <v>0.02793370603132904</v>
       </c>
       <c r="E73">
-        <v>0.1153556759992831</v>
+        <v>-0.1047330260588809</v>
       </c>
       <c r="F73">
-        <v>0.2542069246104076</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.019036435359887</v>
+      </c>
+      <c r="G73">
+        <v>-0.2679702118551349</v>
+      </c>
+      <c r="H73">
+        <v>0.5365878720845942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1319554909505398</v>
+        <v>0.1242421702534904</v>
       </c>
       <c r="C74">
-        <v>-0.02821539262420004</v>
+        <v>0.07312696047870283</v>
       </c>
       <c r="D74">
-        <v>-0.03552634347008524</v>
+        <v>-0.04281009406031679</v>
       </c>
       <c r="E74">
-        <v>-0.0166005760473712</v>
+        <v>-0.008805669965498341</v>
       </c>
       <c r="F74">
-        <v>-0.1181279154196663</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.05774379319930575</v>
+      </c>
+      <c r="G74">
+        <v>0.08874787398049853</v>
+      </c>
+      <c r="H74">
+        <v>0.009439787973479732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2294590726809663</v>
+        <v>0.230951912401684</v>
       </c>
       <c r="C75">
-        <v>-0.09866272393849776</v>
+        <v>0.1401459325868652</v>
       </c>
       <c r="D75">
-        <v>-0.07197138938700817</v>
+        <v>-0.04411048846747167</v>
       </c>
       <c r="E75">
-        <v>-0.01953468036099917</v>
+        <v>-0.03274509022054693</v>
       </c>
       <c r="F75">
-        <v>-0.1773618237516802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1276572795394884</v>
+      </c>
+      <c r="G75">
+        <v>0.1770181084945946</v>
+      </c>
+      <c r="H75">
+        <v>-0.01624318487563125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2458978257553706</v>
+        <v>0.2208785872288593</v>
       </c>
       <c r="C76">
-        <v>-0.1152587243122247</v>
+        <v>0.1368643216773403</v>
       </c>
       <c r="D76">
-        <v>-0.01503511198250644</v>
+        <v>-0.03353049394593356</v>
       </c>
       <c r="E76">
-        <v>-0.05808541769479632</v>
+        <v>0.008827043826482871</v>
       </c>
       <c r="F76">
-        <v>-0.2124666270107777</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1296397119819833</v>
+      </c>
+      <c r="G76">
+        <v>0.198655487861094</v>
+      </c>
+      <c r="H76">
+        <v>-0.03625010304369927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1555514056148635</v>
+        <v>0.09622471841145686</v>
       </c>
       <c r="C77">
-        <v>0.01808272192704698</v>
+        <v>0.03132191739847827</v>
       </c>
       <c r="D77">
-        <v>-0.07620254089289526</v>
+        <v>-0.07048286190994195</v>
       </c>
       <c r="E77">
-        <v>-0.01700755319045712</v>
+        <v>-0.01163942191007553</v>
       </c>
       <c r="F77">
-        <v>0.2070398244226535</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.002930599339640183</v>
+      </c>
+      <c r="G77">
+        <v>-0.1456605730017924</v>
+      </c>
+      <c r="H77">
+        <v>-0.1998777452719757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07487418958486604</v>
+        <v>0.05187209020553362</v>
       </c>
       <c r="C78">
-        <v>0.001719267512953423</v>
+        <v>0.02429165912852051</v>
       </c>
       <c r="D78">
-        <v>-0.07455808617160745</v>
+        <v>-0.05239299972223842</v>
       </c>
       <c r="E78">
-        <v>-0.06652811718941486</v>
+        <v>0.002907254483578131</v>
       </c>
       <c r="F78">
-        <v>0.05208064557650144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04746816797965819</v>
+      </c>
+      <c r="G78">
+        <v>-0.07474860800811206</v>
+      </c>
+      <c r="H78">
+        <v>-0.03020827210698152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1587901905448891</v>
+        <v>0.1717665539684702</v>
       </c>
       <c r="C80">
-        <v>0.1538819564787745</v>
+        <v>0.06925717169750141</v>
       </c>
       <c r="D80">
-        <v>0.6598038158327569</v>
+        <v>0.08201842623760397</v>
       </c>
       <c r="E80">
-        <v>-0.696244575273281</v>
+        <v>0.9630781070212221</v>
       </c>
       <c r="F80">
-        <v>0.08293537495546999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06040810185065898</v>
+      </c>
+      <c r="G80">
+        <v>-0.09449492805680776</v>
+      </c>
+      <c r="H80">
+        <v>0.03084582987336569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1608169341304483</v>
+        <v>0.1602050384952382</v>
       </c>
       <c r="C81">
-        <v>-0.08385847335339741</v>
+        <v>0.09684415853401696</v>
       </c>
       <c r="D81">
-        <v>-0.05074870911735552</v>
+        <v>-0.03317787784535506</v>
       </c>
       <c r="E81">
-        <v>-0.04287522931281866</v>
+        <v>-0.007562419713314797</v>
       </c>
       <c r="F81">
-        <v>-0.1983043852764063</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09700366749018557</v>
+      </c>
+      <c r="G81">
+        <v>0.1337892878732017</v>
+      </c>
+      <c r="H81">
+        <v>-0.03646155560650644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05683851833638489</v>
+        <v>0.04336304089691375</v>
       </c>
       <c r="C83">
-        <v>0.02092704846338214</v>
+        <v>0.01602332277369623</v>
       </c>
       <c r="D83">
-        <v>-0.05639488339136328</v>
+        <v>-0.02791105856621284</v>
       </c>
       <c r="E83">
-        <v>-0.01776477434290432</v>
+        <v>-0.01209554782551552</v>
       </c>
       <c r="F83">
-        <v>0.06216602479189656</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01168350969882677</v>
+      </c>
+      <c r="G83">
+        <v>-0.05753279246878517</v>
+      </c>
+      <c r="H83">
+        <v>-0.03713956618964159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2211720480334358</v>
+        <v>0.2169449918312335</v>
       </c>
       <c r="C85">
-        <v>-0.06299301792659727</v>
+        <v>0.1204875328716509</v>
       </c>
       <c r="D85">
-        <v>-0.05960939310797642</v>
+        <v>-0.07649303169696535</v>
       </c>
       <c r="E85">
-        <v>-0.05893952375673207</v>
+        <v>-0.01607864188770978</v>
       </c>
       <c r="F85">
-        <v>-0.2356733176208993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.123310013565141</v>
+      </c>
+      <c r="G85">
+        <v>0.190753411344928</v>
+      </c>
+      <c r="H85">
+        <v>-0.02758531993777356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02340540579217174</v>
+        <v>0.01325263097004245</v>
       </c>
       <c r="C86">
-        <v>0.01377057719416484</v>
+        <v>0.000760646774742998</v>
       </c>
       <c r="D86">
-        <v>-0.04957281804053638</v>
+        <v>-0.02893021920096074</v>
       </c>
       <c r="E86">
-        <v>-0.04966608971425623</v>
+        <v>-0.0044564611228227</v>
       </c>
       <c r="F86">
-        <v>0.09972721797250651</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0147638420333088</v>
+      </c>
+      <c r="G86">
+        <v>-0.09710545987244154</v>
+      </c>
+      <c r="H86">
+        <v>-0.05810289967884202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01258094881008541</v>
+        <v>0.02084654032913216</v>
       </c>
       <c r="C87">
-        <v>-0.03353961519724396</v>
+        <v>0.002525313379313761</v>
       </c>
       <c r="D87">
-        <v>0.0386646166004172</v>
+        <v>0.0127403435820598</v>
       </c>
       <c r="E87">
-        <v>0.03222250726370521</v>
+        <v>-0.001239242302137424</v>
       </c>
       <c r="F87">
-        <v>0.09050241961338987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.005344514268943867</v>
+      </c>
+      <c r="G87">
+        <v>-0.09885681604832934</v>
+      </c>
+      <c r="H87">
+        <v>0.0080589315420793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01283589705215405</v>
+        <v>0.03702735636947863</v>
       </c>
       <c r="C88">
-        <v>-0.01607059556476849</v>
+        <v>-0.0067926475334515</v>
       </c>
       <c r="D88">
-        <v>0.006857020483680391</v>
+        <v>0.006182407632656822</v>
       </c>
       <c r="E88">
-        <v>-0.01870789079174117</v>
+        <v>0.004521124878858179</v>
       </c>
       <c r="F88">
-        <v>0.02069271827564452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01039766665909723</v>
+      </c>
+      <c r="G88">
+        <v>-0.003417065413516256</v>
+      </c>
+      <c r="H88">
+        <v>-0.02756500299387018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08043210388692348</v>
+        <v>0.1367657406983246</v>
       </c>
       <c r="C89">
-        <v>-0.1093146126032833</v>
+        <v>0.01563254055922171</v>
       </c>
       <c r="D89">
-        <v>0.2174077336392891</v>
+        <v>0.3490043072517111</v>
       </c>
       <c r="E89">
-        <v>0.2384018704530994</v>
+        <v>-0.08101045536039345</v>
       </c>
       <c r="F89">
-        <v>0.05306147829040912</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1708425389576442</v>
+      </c>
+      <c r="G89">
+        <v>0.001757734429167414</v>
+      </c>
+      <c r="H89">
+        <v>-0.1024900387027548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07820047912340607</v>
+        <v>0.1005417604251338</v>
       </c>
       <c r="C90">
-        <v>-0.1110973409124064</v>
+        <v>0.008277903959560989</v>
       </c>
       <c r="D90">
-        <v>0.2469789156617728</v>
+        <v>0.2974429125462024</v>
       </c>
       <c r="E90">
-        <v>0.1919000569203997</v>
+        <v>-0.04938253303504883</v>
       </c>
       <c r="F90">
-        <v>0.02032379237010293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.154136593375862</v>
+      </c>
+      <c r="G90">
+        <v>0.03495255012533206</v>
+      </c>
+      <c r="H90">
+        <v>-0.05979118270609684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2865434326958912</v>
+        <v>0.2519673779766103</v>
       </c>
       <c r="C91">
-        <v>-0.08122501737753046</v>
+        <v>0.1499057631695858</v>
       </c>
       <c r="D91">
-        <v>-0.0836358669449513</v>
+        <v>-0.07836746549462098</v>
       </c>
       <c r="E91">
-        <v>-0.0521215609909626</v>
+        <v>-0.02368404591555603</v>
       </c>
       <c r="F91">
-        <v>-0.3022239207624695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1267726264548148</v>
+      </c>
+      <c r="G91">
+        <v>0.2492956322848038</v>
+      </c>
+      <c r="H91">
+        <v>-0.05666812622780908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1187845259165476</v>
+        <v>0.1640085620851519</v>
       </c>
       <c r="C92">
-        <v>-0.09338365653635942</v>
+        <v>0.08544818617238494</v>
       </c>
       <c r="D92">
-        <v>0.2623666556183941</v>
+        <v>0.3017053897020558</v>
       </c>
       <c r="E92">
-        <v>0.1988102017969356</v>
+        <v>-0.03488715053846975</v>
       </c>
       <c r="F92">
-        <v>-0.0003421181881372188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1542251615770695</v>
+      </c>
+      <c r="G92">
+        <v>0.09654914123485266</v>
+      </c>
+      <c r="H92">
+        <v>-0.1666815245388858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0749436705514319</v>
+        <v>0.1252028848081378</v>
       </c>
       <c r="C93">
-        <v>-0.09935897051570573</v>
+        <v>0.01955963867676232</v>
       </c>
       <c r="D93">
-        <v>0.3019471762838492</v>
+        <v>0.3380925865316444</v>
       </c>
       <c r="E93">
-        <v>0.2555739572532974</v>
+        <v>-0.06724368648906993</v>
       </c>
       <c r="F93">
-        <v>-0.006287939016981527</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2179105790658084</v>
+      </c>
+      <c r="G93">
+        <v>0.05111631930198877</v>
+      </c>
+      <c r="H93">
+        <v>0.002365111819971118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2445726122346333</v>
+        <v>0.2600304668905847</v>
       </c>
       <c r="C94">
-        <v>-0.1053902163617667</v>
+        <v>0.1326517140734006</v>
       </c>
       <c r="D94">
-        <v>-0.007044558743179073</v>
+        <v>-0.02658154887200922</v>
       </c>
       <c r="E94">
-        <v>-0.02722095905244834</v>
+        <v>-0.04145286363061763</v>
       </c>
       <c r="F94">
-        <v>-0.3362257492340087</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1207897183131462</v>
+      </c>
+      <c r="G94">
+        <v>0.2801435253544032</v>
+      </c>
+      <c r="H94">
+        <v>-0.04595845765879568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1407161642939852</v>
+        <v>0.0994586290167756</v>
       </c>
       <c r="C95">
-        <v>-0.002839563964228531</v>
+        <v>0.06061875818496513</v>
       </c>
       <c r="D95">
-        <v>-0.1298908302002122</v>
+        <v>-0.06055370769532471</v>
       </c>
       <c r="E95">
-        <v>-0.03262331227255223</v>
+        <v>-0.079793947792523</v>
       </c>
       <c r="F95">
-        <v>0.1077210927713584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01395681055199757</v>
+      </c>
+      <c r="G95">
+        <v>-0.09382123510435132</v>
+      </c>
+      <c r="H95">
+        <v>-0.1307018939325154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.193677890064295</v>
+        <v>0.1799044802736736</v>
       </c>
       <c r="C98">
-        <v>-0.06668306890728692</v>
+        <v>0.09555154037800004</v>
       </c>
       <c r="D98">
-        <v>0.02452425461901171</v>
+        <v>0.03441940361964785</v>
       </c>
       <c r="E98">
-        <v>0.1024614273981307</v>
+        <v>-0.07081915997912472</v>
       </c>
       <c r="F98">
-        <v>0.1160789570253767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.00589508831506119</v>
+      </c>
+      <c r="G98">
+        <v>-0.2004934018882757</v>
+      </c>
+      <c r="H98">
+        <v>0.3874058378906139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00117116394504124</v>
+        <v>0.01507914060288145</v>
       </c>
       <c r="C101">
-        <v>-0.02076778419645353</v>
+        <v>0.002837056602965252</v>
       </c>
       <c r="D101">
-        <v>-0.04433274592196078</v>
+        <v>-0.01027332274130277</v>
       </c>
       <c r="E101">
-        <v>-0.05672799275782388</v>
+        <v>0.003101532661833229</v>
       </c>
       <c r="F101">
-        <v>0.05050239785584178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04111277210843221</v>
+      </c>
+      <c r="G101">
+        <v>-0.07876510818474626</v>
+      </c>
+      <c r="H101">
+        <v>-0.1189790209882445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09369724339888268</v>
+        <v>0.1110354084062496</v>
       </c>
       <c r="C102">
-        <v>-0.02841751910816203</v>
+        <v>0.05436346395899441</v>
       </c>
       <c r="D102">
-        <v>-0.03968503422944109</v>
+        <v>-0.03227843695771679</v>
       </c>
       <c r="E102">
-        <v>-0.04765918778974069</v>
+        <v>-0.002095796298739004</v>
       </c>
       <c r="F102">
-        <v>-0.1090345308196298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.069200539290529</v>
+      </c>
+      <c r="G102">
+        <v>0.1138178130330819</v>
+      </c>
+      <c r="H102">
+        <v>-0.007012557013559988</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02477939386240049</v>
+        <v>0.02465033724707834</v>
       </c>
       <c r="C103">
-        <v>-0.006818084438078269</v>
+        <v>0.01272944595886629</v>
       </c>
       <c r="D103">
-        <v>-0.003132561016225818</v>
+        <v>-0.007651923621316327</v>
       </c>
       <c r="E103">
-        <v>-0.0008948491189609641</v>
+        <v>0.006530308800541084</v>
       </c>
       <c r="F103">
-        <v>-0.03603095365071651</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01224588853252532</v>
+      </c>
+      <c r="G103">
+        <v>0.01364461262538179</v>
+      </c>
+      <c r="H103">
+        <v>-0.01599867224497067</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3899762020156671</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8994428995613373</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01559597587176508</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.007747661801587372</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1654268354873327</v>
+      </c>
+      <c r="G104">
+        <v>0.04865634687684015</v>
+      </c>
+      <c r="H104">
+        <v>-0.001239646358369865</v>
       </c>
     </row>
   </sheetData>
